--- a/ItemCirculationManagementBackground/Resource/Files/ExcelImport/标签转换导入表格.xlsx
+++ b/ItemCirculationManagementBackground/Resource/Files/ExcelImport/标签转换导入表格.xlsx
@@ -421,13 +421,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">

--- a/ItemCirculationManagementBackground/Resource/Files/ExcelImport/标签转换导入表格.xlsx
+++ b/ItemCirculationManagementBackground/Resource/Files/ExcelImport/标签转换导入表格.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>电子标签</t>
   </si>
@@ -38,6 +38,14 @@
   </si>
   <si>
     <t>笔记本电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -430,7 +438,7 @@
     <col min="2" max="3" width="11.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +448,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -450,6 +461,9 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
